--- a/relatorios/repasses_liberados/dentistas/06491099458/2023-08-25_relatorio_repasses_06491099458.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06491099458/2023-08-25_relatorio_repasses_06491099458.xlsx
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N125">
         <v>0</v>
@@ -7035,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="M132">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -7079,7 +7079,7 @@
         <v>0</v>
       </c>
       <c r="M133">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7211,7 +7211,7 @@
         <v>0</v>
       </c>
       <c r="M136">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N136">
         <v>0</v>
@@ -8487,7 +8487,7 @@
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N165">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="M179">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N179">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N209">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="M265">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N265">
         <v>0</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="M274">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -14251,7 +14251,7 @@
         <v>0</v>
       </c>
       <c r="M296">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N296">
         <v>0</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N303">
         <v>0</v>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -15131,7 +15131,7 @@
         <v>0</v>
       </c>
       <c r="M316">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N316">
         <v>0</v>
@@ -15747,7 +15747,7 @@
         <v>0</v>
       </c>
       <c r="M330">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N330">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N339">
         <v>0</v>
@@ -16275,7 +16275,7 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N342">
         <v>0</v>
@@ -16627,7 +16627,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="M352">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N393">
         <v>0</v>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -19179,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N409">
         <v>0</v>
@@ -19311,7 +19311,7 @@
         <v>0</v>
       </c>
       <c r="M411">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N411">
         <v>0</v>
@@ -19355,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="M412">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N412">
         <v>0</v>
@@ -19399,7 +19399,7 @@
         <v>0</v>
       </c>
       <c r="M413">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N413">
         <v>0</v>
@@ -19487,7 +19487,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -20587,7 +20587,7 @@
         <v>0</v>
       </c>
       <c r="M440">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N440">
         <v>0</v>
@@ -20631,7 +20631,7 @@
         <v>0</v>
       </c>
       <c r="M441">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N441">
         <v>0</v>
@@ -20719,7 +20719,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -20763,7 +20763,7 @@
         <v>0</v>
       </c>
       <c r="M444">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N444">
         <v>0</v>
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -21379,7 +21379,7 @@
         <v>0</v>
       </c>
       <c r="M458">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N458">
         <v>0</v>
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N459">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22435,7 +22435,7 @@
         <v>0</v>
       </c>
       <c r="M482">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N482">
         <v>0</v>
@@ -22479,7 +22479,7 @@
         <v>0</v>
       </c>
       <c r="M483">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N483">
         <v>0</v>
@@ -22523,7 +22523,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -23755,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="M512">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N512">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="M545">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N545">
         <v>0</v>
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -25427,7 +25427,7 @@
         <v>0</v>
       </c>
       <c r="M550">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N550">
         <v>0</v>
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -25911,7 +25911,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -26439,7 +26439,7 @@
         <v>0</v>
       </c>
       <c r="M573">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N573">
         <v>0</v>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N589">
         <v>0</v>
@@ -27187,7 +27187,7 @@
         <v>0</v>
       </c>
       <c r="M590">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N590">
         <v>0</v>
@@ -27759,7 +27759,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N603">
         <v>0</v>
@@ -27891,7 +27891,7 @@
         <v>0</v>
       </c>
       <c r="M606">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N606">
         <v>0</v>
@@ -28771,7 +28771,7 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N626">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="M627">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N627">
         <v>0</v>
@@ -30135,10 +30135,10 @@
         <v>0.5</v>
       </c>
       <c r="M657">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N657">
-        <v>22.2</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -31191,7 +31191,7 @@
         <v>0</v>
       </c>
       <c r="M681">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N681">
         <v>0</v>
@@ -32687,7 +32687,7 @@
         <v>0</v>
       </c>
       <c r="M715">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N715">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="N716">
         <v>0</v>
@@ -32863,7 +32863,7 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N719">
         <v>0</v>
@@ -32951,7 +32951,7 @@
         <v>0</v>
       </c>
       <c r="M721">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N721">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/06491099458/2023-08-25_relatorio_repasses_06491099458.xlsx
+++ b/relatorios/repasses_liberados/dentistas/06491099458/2023-08-25_relatorio_repasses_06491099458.xlsx
@@ -3295,10 +3295,10 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N47">
-        <v>18.471</v>
+        <v>24.628</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -3515,10 +3515,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N52">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -3559,10 +3559,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N53">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -3603,10 +3603,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.3</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -3779,10 +3779,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N58">
-        <v>1.068</v>
+        <v>65</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3867,10 +3867,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N60">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3911,10 +3911,10 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N61">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3955,10 +3955,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N62">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3999,10 +3999,10 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N63">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -4131,10 +4131,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N66">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -4219,10 +4219,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N68">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -4263,10 +4263,10 @@
         <v>0</v>
       </c>
       <c r="M69">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N69">
-        <v>7.26</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -4307,10 +4307,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N70">
-        <v>8.709</v>
+        <v>11.612</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -4659,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N78">
-        <v>2.608</v>
+        <v>1.956</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -4703,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N79">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4747,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N80">
-        <v>6.6</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4791,10 +4791,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N81">
-        <v>5.184</v>
+        <v>8.640000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -5099,10 +5099,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -5187,10 +5187,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N90">
-        <v>7.244999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -5275,10 +5275,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -5539,10 +5539,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N98">
-        <v>7.244999999999999</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5671,10 +5671,10 @@
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N101">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -5759,10 +5759,10 @@
         <v>0</v>
       </c>
       <c r="M103">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N103">
-        <v>1.98</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N104">
         <v>0</v>
@@ -6155,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="M112">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N112">
         <v>0</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N113">
         <v>0</v>
@@ -6331,7 +6331,7 @@
         <v>0</v>
       </c>
       <c r="M116">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N116">
         <v>0</v>
@@ -6683,7 +6683,7 @@
         <v>0</v>
       </c>
       <c r="M124">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N124">
         <v>0</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="M135">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="M140">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N140">
         <v>0</v>
@@ -7431,7 +7431,7 @@
         <v>0</v>
       </c>
       <c r="M141">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="M149">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N149">
         <v>0</v>
@@ -7827,7 +7827,7 @@
         <v>0</v>
       </c>
       <c r="M150">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N150">
         <v>0</v>
@@ -7871,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="M151">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N151">
         <v>0</v>
@@ -7915,7 +7915,7 @@
         <v>0</v>
       </c>
       <c r="M152">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N152">
         <v>0</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N153">
         <v>0</v>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N154">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="M156">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N156">
         <v>0</v>
@@ -8135,7 +8135,7 @@
         <v>0</v>
       </c>
       <c r="M157">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N157">
         <v>0</v>
@@ -8179,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N158">
         <v>0</v>
@@ -8223,10 +8223,10 @@
         <v>0.804688</v>
       </c>
       <c r="M159">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N159">
-        <v>49.7297184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:14">
@@ -8443,7 +8443,7 @@
         <v>0</v>
       </c>
       <c r="M164">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N164">
         <v>0</v>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N169">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N170">
         <v>0</v>
@@ -8795,7 +8795,7 @@
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N172">
         <v>0</v>
@@ -8971,7 +8971,7 @@
         <v>0</v>
       </c>
       <c r="M176">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N176">
         <v>0</v>
@@ -9059,7 +9059,7 @@
         <v>0</v>
       </c>
       <c r="M178">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N178">
         <v>0</v>
@@ -9147,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.3</v>
+        <v>2</v>
       </c>
       <c r="N180">
         <v>0</v>
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="M181">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N181">
         <v>0</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N184">
         <v>0</v>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
       <c r="M186">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -10027,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N200">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N202">
         <v>0</v>
@@ -10291,7 +10291,7 @@
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N206">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N208">
         <v>0</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="M224">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N224">
         <v>0</v>
@@ -11127,7 +11127,7 @@
         <v>0</v>
       </c>
       <c r="M225">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N225">
         <v>0</v>
@@ -11171,7 +11171,7 @@
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N226">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N228">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M229">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N229">
         <v>0</v>
@@ -11347,7 +11347,7 @@
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N230">
         <v>0</v>
@@ -11523,7 +11523,7 @@
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N234">
         <v>0</v>
@@ -11699,7 +11699,7 @@
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N238">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N240">
         <v>0</v>
@@ -12227,7 +12227,7 @@
         <v>0</v>
       </c>
       <c r="M250">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N250">
         <v>0</v>
@@ -12271,7 +12271,7 @@
         <v>0</v>
       </c>
       <c r="M251">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N251">
         <v>0</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="M263">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N263">
         <v>0</v>
@@ -12843,7 +12843,7 @@
         <v>0</v>
       </c>
       <c r="M264">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N264">
         <v>0</v>
@@ -13107,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="M270">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N270">
         <v>0</v>
@@ -13151,7 +13151,7 @@
         <v>0</v>
       </c>
       <c r="M271">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N271">
         <v>0</v>
@@ -13195,7 +13195,7 @@
         <v>0</v>
       </c>
       <c r="M272">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N272">
         <v>0</v>
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="M273">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -13371,7 +13371,7 @@
         <v>0</v>
       </c>
       <c r="M276">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -13503,7 +13503,7 @@
         <v>0</v>
       </c>
       <c r="M279">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N279">
         <v>0</v>
@@ -13547,7 +13547,7 @@
         <v>0</v>
       </c>
       <c r="M280">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N280">
         <v>0</v>
@@ -13591,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N281">
         <v>0</v>
@@ -13635,7 +13635,7 @@
         <v>0</v>
       </c>
       <c r="M282">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N282">
         <v>0</v>
@@ -13855,7 +13855,7 @@
         <v>0</v>
       </c>
       <c r="M287">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N287">
         <v>0</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="M291">
-        <v>5</v>
+        <v>0.3</v>
       </c>
       <c r="N291">
         <v>0</v>
@@ -14075,7 +14075,7 @@
         <v>0</v>
       </c>
       <c r="M292">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N292">
         <v>0</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="M293">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N293">
         <v>0</v>
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="M294">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N294">
         <v>0</v>
@@ -14427,7 +14427,7 @@
         <v>0</v>
       </c>
       <c r="M300">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="M301">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -14515,7 +14515,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="M303">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N303">
         <v>0</v>
@@ -14603,7 +14603,7 @@
         <v>0</v>
       </c>
       <c r="M304">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N304">
         <v>0</v>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="M305">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N305">
         <v>0</v>
@@ -14691,7 +14691,7 @@
         <v>0</v>
       </c>
       <c r="M306">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N306">
         <v>0</v>
@@ -14735,7 +14735,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N307">
         <v>0</v>
@@ -14867,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="M310">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N310">
         <v>0</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="M311">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N311">
         <v>0</v>
@@ -15043,7 +15043,7 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N314">
         <v>0</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N315">
         <v>0</v>
@@ -15307,7 +15307,7 @@
         <v>0</v>
       </c>
       <c r="M320">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -15571,7 +15571,7 @@
         <v>0</v>
       </c>
       <c r="M326">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N326">
         <v>0</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="M327">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -15659,7 +15659,7 @@
         <v>0</v>
       </c>
       <c r="M328">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N328">
         <v>0</v>
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N329">
         <v>0</v>
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="M333">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N333">
         <v>0</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="M335">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N335">
         <v>0</v>
@@ -16011,7 +16011,7 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N336">
         <v>0</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -16099,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="M338">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="M345">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N345">
         <v>0</v>
@@ -16451,7 +16451,7 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N346">
         <v>0</v>
@@ -16627,7 +16627,7 @@
         <v>0</v>
       </c>
       <c r="M350">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N350">
         <v>0</v>
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="M355">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -17551,7 +17551,7 @@
         <v>0</v>
       </c>
       <c r="M371">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N371">
         <v>0</v>
@@ -17595,7 +17595,7 @@
         <v>0</v>
       </c>
       <c r="M372">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N372">
         <v>0</v>
@@ -17639,7 +17639,7 @@
         <v>0</v>
       </c>
       <c r="M373">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N373">
         <v>0</v>
@@ -17683,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="M374">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N374">
         <v>0</v>
@@ -17727,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="M375">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N375">
         <v>0</v>
@@ -17771,7 +17771,7 @@
         <v>0</v>
       </c>
       <c r="M376">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N376">
         <v>0</v>
@@ -17859,7 +17859,7 @@
         <v>0</v>
       </c>
       <c r="M378">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N378">
         <v>0</v>
@@ -17947,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="M380">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N380">
         <v>0</v>
@@ -18123,7 +18123,7 @@
         <v>0</v>
       </c>
       <c r="M384">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N384">
         <v>0</v>
@@ -18167,7 +18167,7 @@
         <v>0</v>
       </c>
       <c r="M385">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N385">
         <v>0</v>
@@ -18343,7 +18343,7 @@
         <v>0</v>
       </c>
       <c r="M389">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N389">
         <v>0</v>
@@ -18387,7 +18387,7 @@
         <v>0</v>
       </c>
       <c r="M390">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N390">
         <v>0</v>
@@ -18431,7 +18431,7 @@
         <v>0</v>
       </c>
       <c r="M391">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N391">
         <v>0</v>
@@ -18475,7 +18475,7 @@
         <v>0</v>
       </c>
       <c r="M392">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N392">
         <v>0</v>
@@ -18519,7 +18519,7 @@
         <v>0</v>
       </c>
       <c r="M393">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N393">
         <v>0</v>
@@ -18563,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="M394">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N394">
         <v>0</v>
@@ -18739,7 +18739,7 @@
         <v>0</v>
       </c>
       <c r="M398">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N398">
         <v>0</v>
@@ -18783,7 +18783,7 @@
         <v>0</v>
       </c>
       <c r="M399">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N399">
         <v>0</v>
@@ -18827,7 +18827,7 @@
         <v>0</v>
       </c>
       <c r="M400">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N400">
         <v>0</v>
@@ -18915,7 +18915,7 @@
         <v>0</v>
       </c>
       <c r="M402">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N402">
         <v>0</v>
@@ -18959,7 +18959,7 @@
         <v>0</v>
       </c>
       <c r="M403">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N403">
         <v>0</v>
@@ -19003,7 +19003,7 @@
         <v>0</v>
       </c>
       <c r="M404">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N404">
         <v>0</v>
@@ -19179,7 +19179,7 @@
         <v>0</v>
       </c>
       <c r="M408">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N408">
         <v>0</v>
@@ -19223,7 +19223,7 @@
         <v>0</v>
       </c>
       <c r="M409">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N409">
         <v>0</v>
@@ -19267,7 +19267,7 @@
         <v>0</v>
       </c>
       <c r="M410">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N410">
         <v>0</v>
@@ -19443,7 +19443,7 @@
         <v>0</v>
       </c>
       <c r="M414">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N414">
         <v>0</v>
@@ -19487,7 +19487,7 @@
         <v>0</v>
       </c>
       <c r="M415">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N415">
         <v>0</v>
@@ -19751,7 +19751,7 @@
         <v>0</v>
       </c>
       <c r="M421">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N421">
         <v>0</v>
@@ -19795,7 +19795,7 @@
         <v>0</v>
       </c>
       <c r="M422">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N422">
         <v>0</v>
@@ -19839,7 +19839,7 @@
         <v>0</v>
       </c>
       <c r="M423">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N423">
         <v>0</v>
@@ -20543,7 +20543,7 @@
         <v>0</v>
       </c>
       <c r="M439">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N439">
         <v>0</v>
@@ -20719,7 +20719,7 @@
         <v>0</v>
       </c>
       <c r="M443">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N443">
         <v>0</v>
@@ -20807,7 +20807,7 @@
         <v>0</v>
       </c>
       <c r="M445">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N445">
         <v>0</v>
@@ -20851,7 +20851,7 @@
         <v>0</v>
       </c>
       <c r="M446">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N446">
         <v>0</v>
@@ -20895,7 +20895,7 @@
         <v>0</v>
       </c>
       <c r="M447">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N447">
         <v>0</v>
@@ -20939,7 +20939,7 @@
         <v>0</v>
       </c>
       <c r="M448">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N448">
         <v>0</v>
@@ -20983,7 +20983,7 @@
         <v>0</v>
       </c>
       <c r="M449">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N449">
         <v>0</v>
@@ -21291,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="M456">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N456">
         <v>0</v>
@@ -21335,7 +21335,7 @@
         <v>0</v>
       </c>
       <c r="M457">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N457">
         <v>0</v>
@@ -21423,7 +21423,7 @@
         <v>0</v>
       </c>
       <c r="M459">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N459">
         <v>0</v>
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="M472">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N472">
         <v>0</v>
@@ -22039,7 +22039,7 @@
         <v>0</v>
       </c>
       <c r="M473">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N473">
         <v>0</v>
@@ -22083,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="M474">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N474">
         <v>0</v>
@@ -22259,7 +22259,7 @@
         <v>0</v>
       </c>
       <c r="M478">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N478">
         <v>0</v>
@@ -22523,7 +22523,7 @@
         <v>0</v>
       </c>
       <c r="M484">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N484">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>0</v>
       </c>
       <c r="M485">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N485">
         <v>0</v>
@@ -22699,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="M488">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N488">
         <v>0</v>
@@ -22743,7 +22743,7 @@
         <v>0</v>
       </c>
       <c r="M489">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N489">
         <v>0</v>
@@ -22787,7 +22787,7 @@
         <v>0</v>
       </c>
       <c r="M490">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N490">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="M491">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N491">
         <v>0</v>
@@ -22875,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="M492">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N492">
         <v>0</v>
@@ -23051,7 +23051,7 @@
         <v>0</v>
       </c>
       <c r="M496">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N496">
         <v>0</v>
@@ -23095,7 +23095,7 @@
         <v>0</v>
       </c>
       <c r="M497">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N497">
         <v>0</v>
@@ -23623,7 +23623,7 @@
         <v>0</v>
       </c>
       <c r="M509">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N509">
         <v>0</v>
@@ -23667,7 +23667,7 @@
         <v>0</v>
       </c>
       <c r="M510">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N510">
         <v>0</v>
@@ -23711,7 +23711,7 @@
         <v>0</v>
       </c>
       <c r="M511">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N511">
         <v>0</v>
@@ -23799,7 +23799,7 @@
         <v>0</v>
       </c>
       <c r="M513">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N513">
         <v>0</v>
@@ -23843,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="M514">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N514">
         <v>0</v>
@@ -23975,7 +23975,7 @@
         <v>0</v>
       </c>
       <c r="M517">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N517">
         <v>0</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="M527">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N527">
         <v>0</v>
@@ -24591,7 +24591,7 @@
         <v>0</v>
       </c>
       <c r="M531">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N531">
         <v>0</v>
@@ -24635,7 +24635,7 @@
         <v>0</v>
       </c>
       <c r="M532">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N532">
         <v>0</v>
@@ -24767,7 +24767,7 @@
         <v>0</v>
       </c>
       <c r="M535">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N535">
         <v>0</v>
@@ -24899,7 +24899,7 @@
         <v>0</v>
       </c>
       <c r="M538">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N538">
         <v>0</v>
@@ -25075,7 +25075,7 @@
         <v>0</v>
       </c>
       <c r="M542">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N542">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="M543">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N543">
         <v>0</v>
@@ -25163,7 +25163,7 @@
         <v>0</v>
       </c>
       <c r="M544">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N544">
         <v>0</v>
@@ -25251,7 +25251,7 @@
         <v>0</v>
       </c>
       <c r="M546">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N546">
         <v>0</v>
@@ -25383,7 +25383,7 @@
         <v>0</v>
       </c>
       <c r="M549">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N549">
         <v>0</v>
@@ -25471,7 +25471,7 @@
         <v>0</v>
       </c>
       <c r="M551">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N551">
         <v>0</v>
@@ -25735,7 +25735,7 @@
         <v>0</v>
       </c>
       <c r="M557">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N557">
         <v>0</v>
@@ -25779,7 +25779,7 @@
         <v>0</v>
       </c>
       <c r="M558">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N558">
         <v>0</v>
@@ -25823,7 +25823,7 @@
         <v>0</v>
       </c>
       <c r="M559">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N559">
         <v>0</v>
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="M560">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N560">
         <v>0</v>
@@ -25911,7 +25911,7 @@
         <v>0</v>
       </c>
       <c r="M561">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N561">
         <v>0</v>
@@ -26175,7 +26175,7 @@
         <v>0</v>
       </c>
       <c r="M567">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N567">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>0</v>
       </c>
       <c r="M568">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N568">
         <v>0</v>
@@ -26263,7 +26263,7 @@
         <v>0</v>
       </c>
       <c r="M569">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N569">
         <v>0</v>
@@ -26307,7 +26307,7 @@
         <v>0</v>
       </c>
       <c r="M570">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N570">
         <v>0</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="M572">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N572">
         <v>0</v>
@@ -26483,7 +26483,7 @@
         <v>0</v>
       </c>
       <c r="M574">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N574">
         <v>0</v>
@@ -26835,7 +26835,7 @@
         <v>0</v>
       </c>
       <c r="M582">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N582">
         <v>0</v>
@@ -27143,7 +27143,7 @@
         <v>0</v>
       </c>
       <c r="M589">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N589">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="M592">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N592">
         <v>0</v>
@@ -27319,7 +27319,7 @@
         <v>0</v>
       </c>
       <c r="M593">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N593">
         <v>0</v>
@@ -27495,7 +27495,7 @@
         <v>0</v>
       </c>
       <c r="M597">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N597">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="M598">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N598">
         <v>0</v>
@@ -27583,7 +27583,7 @@
         <v>0</v>
       </c>
       <c r="M599">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N599">
         <v>0</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="M600">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="N600">
         <v>0</v>
@@ -27715,7 +27715,7 @@
         <v>0</v>
       </c>
       <c r="M602">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N602">
         <v>0</v>
@@ -27759,7 +27759,7 @@
         <v>0</v>
       </c>
       <c r="M603">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N603">
         <v>0</v>
@@ -28155,7 +28155,7 @@
         <v>0</v>
       </c>
       <c r="M612">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N612">
         <v>0</v>
@@ -28199,7 +28199,7 @@
         <v>0</v>
       </c>
       <c r="M613">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N613">
         <v>0</v>
@@ -28727,7 +28727,7 @@
         <v>0</v>
       </c>
       <c r="M625">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N625">
         <v>0</v>
@@ -28771,7 +28771,7 @@
         <v>0</v>
       </c>
       <c r="M626">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N626">
         <v>0</v>
@@ -28859,7 +28859,7 @@
         <v>0</v>
       </c>
       <c r="M628">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N628">
         <v>0</v>
@@ -28903,7 +28903,7 @@
         <v>0</v>
       </c>
       <c r="M629">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N629">
         <v>0</v>
@@ -28947,7 +28947,7 @@
         <v>0</v>
       </c>
       <c r="M630">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N630">
         <v>0</v>
@@ -29123,7 +29123,7 @@
         <v>0</v>
       </c>
       <c r="M634">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N634">
         <v>0</v>
@@ -29167,7 +29167,7 @@
         <v>0</v>
       </c>
       <c r="M635">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N635">
         <v>0</v>
@@ -29343,7 +29343,7 @@
         <v>0</v>
       </c>
       <c r="M639">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N639">
         <v>0</v>
@@ -29475,7 +29475,7 @@
         <v>0</v>
       </c>
       <c r="M642">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N642">
         <v>0</v>
@@ -29519,7 +29519,7 @@
         <v>0</v>
       </c>
       <c r="M643">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N643">
         <v>0</v>
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="M644">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N644">
         <v>0</v>
@@ -29651,7 +29651,7 @@
         <v>0</v>
       </c>
       <c r="M646">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N646">
         <v>0</v>
@@ -30091,10 +30091,10 @@
         <v>0.5</v>
       </c>
       <c r="M656">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N656">
-        <v>29.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="657" spans="1:14">
@@ -30135,10 +30135,10 @@
         <v>0.5</v>
       </c>
       <c r="M657">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N657">
-        <v>29.6</v>
+        <v>22.2</v>
       </c>
     </row>
     <row r="658" spans="1:14">
@@ -30179,7 +30179,7 @@
         <v>0</v>
       </c>
       <c r="M658">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N658">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="M659">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N659">
         <v>0</v>
@@ -30267,7 +30267,7 @@
         <v>0</v>
       </c>
       <c r="M660">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N660">
         <v>0</v>
@@ -30311,7 +30311,7 @@
         <v>0</v>
       </c>
       <c r="M661">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N661">
         <v>0</v>
@@ -30355,7 +30355,7 @@
         <v>0</v>
       </c>
       <c r="M662">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N662">
         <v>0</v>
@@ -30399,7 +30399,7 @@
         <v>0</v>
       </c>
       <c r="M663">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N663">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="M669">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N669">
         <v>0</v>
@@ -30971,7 +30971,7 @@
         <v>0</v>
       </c>
       <c r="M676">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N676">
         <v>0</v>
@@ -31015,7 +31015,7 @@
         <v>0</v>
       </c>
       <c r="M677">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N677">
         <v>0</v>
@@ -31323,7 +31323,7 @@
         <v>0</v>
       </c>
       <c r="M684">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N684">
         <v>0</v>
@@ -31411,7 +31411,7 @@
         <v>0</v>
       </c>
       <c r="M686">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N686">
         <v>0</v>
@@ -31455,7 +31455,7 @@
         <v>0</v>
       </c>
       <c r="M687">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N687">
         <v>0</v>
@@ -31499,7 +31499,7 @@
         <v>0</v>
       </c>
       <c r="M688">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N688">
         <v>0</v>
@@ -31543,7 +31543,7 @@
         <v>0</v>
       </c>
       <c r="M689">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N689">
         <v>0</v>
@@ -32335,7 +32335,7 @@
         <v>0</v>
       </c>
       <c r="M707">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N707">
         <v>0</v>
@@ -32423,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="M709">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N709">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>0</v>
       </c>
       <c r="M710">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N710">
         <v>0</v>
@@ -32511,7 +32511,7 @@
         <v>0</v>
       </c>
       <c r="M711">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N711">
         <v>0</v>
@@ -32687,7 +32687,7 @@
         <v>0</v>
       </c>
       <c r="M715">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N715">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>0</v>
       </c>
       <c r="M716">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N716">
         <v>0</v>
@@ -32775,7 +32775,7 @@
         <v>0</v>
       </c>
       <c r="M717">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N717">
         <v>0</v>
@@ -32819,7 +32819,7 @@
         <v>0</v>
       </c>
       <c r="M718">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N718">
         <v>0</v>
@@ -32863,7 +32863,7 @@
         <v>0</v>
       </c>
       <c r="M719">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N719">
         <v>0</v>
@@ -33215,7 +33215,7 @@
         <v>0</v>
       </c>
       <c r="M727">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N727">
         <v>0</v>
@@ -33303,7 +33303,7 @@
         <v>0</v>
       </c>
       <c r="M729">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N729">
         <v>0</v>
